--- a/public/materiality/materiality.xlsx
+++ b/public/materiality/materiality.xlsx
@@ -492,9 +492,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>258120</xdr:colOff>
+      <xdr:colOff>257760</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -507,8 +507,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7293960" y="0"/>
-          <a:ext cx="1671120" cy="828720"/>
+          <a:off x="7291440" y="0"/>
+          <a:ext cx="1669320" cy="828360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -531,21 +531,21 @@
   <dimension ref="B1:L30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="2" width="17.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="3.99"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="2" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="3.98"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="1" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/public/materiality/materiality.xlsx
+++ b/public/materiality/materiality.xlsx
@@ -8,27 +8,99 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Materiality" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <definedNames>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Materiality!$A$1:$K$28</definedName>
+  </definedNames>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+  <si>
+    <t xml:space="preserve">Muniff Ziauddin &amp; Co.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chartered Accountants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An independent member firm of  BKR International</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planning Materiality (PiM as mentioned in Single Rule)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance Materiality "PEM"  (10 % of PiM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tolerable Misstatement (50 % of PEM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on first draft financial statements </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5% of pre-tax income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">½% of total assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1% of equity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2% of total net revenues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average of Individual Calculated Materiality:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planning Materiality ( PiM )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance Materiality "PEM"  ( 20 % of PiM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tolerable Misstatement ( 50 % of PEM )</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
   </numFmts>
-  <fonts count="4">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+  <fonts count="11">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -45,16 +117,76 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Rockwell"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF808080"/>
+      <name val="Rockwell"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Rockwell"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <u val="double"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -62,6 +194,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -82,14 +284,188 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="7" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="9" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -105,28 +481,392 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1045800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257760</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Picture 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7291440" y="0"/>
+          <a:ext cx="1669320" cy="828360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+    <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B1:L30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="2" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="3.98"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="1" width="9.13"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="8"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" s="13" customFormat="true" ht="84" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" s="9" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="26"/>
+      <c r="C12" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+    </row>
+    <row r="13" s="9" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="29"/>
+      <c r="C14" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="31" t="n">
+        <f aca="false">5%*410614258</f>
+        <v>20530712.9</v>
+      </c>
+      <c r="E14" s="31" t="n">
+        <f aca="false">5%*D14</f>
+        <v>1026535.645</v>
+      </c>
+      <c r="F14" s="31" t="n">
+        <f aca="false">10%*E14</f>
+        <v>102653.5645</v>
+      </c>
+      <c r="G14" s="32" t="n">
+        <f aca="false">50%*F14</f>
+        <v>51326.78225</v>
+      </c>
+      <c r="H14" s="33"/>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="29"/>
+      <c r="C15" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <f aca="false">0.5%*2486688230</f>
+        <v>12433441.15</v>
+      </c>
+      <c r="E15" s="31" t="n">
+        <f aca="false">0.5%*D15</f>
+        <v>62167.20575</v>
+      </c>
+      <c r="F15" s="31" t="n">
+        <f aca="false">10%*E15</f>
+        <v>6216.720575</v>
+      </c>
+      <c r="G15" s="32" t="n">
+        <f aca="false">50%*F15</f>
+        <v>3108.3602875</v>
+      </c>
+      <c r="H15" s="33"/>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="29"/>
+      <c r="C16" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="31" t="n">
+        <f aca="false">1%*1289094127</f>
+        <v>12890941.27</v>
+      </c>
+      <c r="E16" s="31" t="n">
+        <f aca="false">1%*D16</f>
+        <v>128909.4127</v>
+      </c>
+      <c r="F16" s="31" t="n">
+        <f aca="false">10%*E16</f>
+        <v>12890.94127</v>
+      </c>
+      <c r="G16" s="32" t="n">
+        <f aca="false">50%*F16</f>
+        <v>6445.470635</v>
+      </c>
+      <c r="H16" s="33"/>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="29"/>
+      <c r="C17" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="31" t="n">
+        <f aca="false">0.5%*15067906643</f>
+        <v>75339533.215</v>
+      </c>
+      <c r="E17" s="31" t="n">
+        <f aca="false">0.5%*D17</f>
+        <v>376697.666075</v>
+      </c>
+      <c r="F17" s="31" t="n">
+        <f aca="false">10%*E17</f>
+        <v>37669.7666075</v>
+      </c>
+      <c r="G17" s="32" t="n">
+        <f aca="false">50%*F17</f>
+        <v>18834.88330375</v>
+      </c>
+      <c r="H17" s="33"/>
+      <c r="L17" s="34"/>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="29"/>
+      <c r="C18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="33"/>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="29"/>
+      <c r="C19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="33"/>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="29"/>
+      <c r="C20" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="35"/>
+      <c r="H20" s="33"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="29"/>
+      <c r="C21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="33"/>
+      <c r="L21" s="36"/>
+    </row>
+    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="29"/>
+      <c r="C22" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="37" t="n">
+        <f aca="false">SUM(E14:E17)/2</f>
+        <v>797154.9647625</v>
+      </c>
+      <c r="G22" s="38"/>
+      <c r="H22" s="33"/>
+    </row>
+    <row r="23" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="29"/>
+      <c r="C23" s="35"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="33"/>
+    </row>
+    <row r="24" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="29"/>
+      <c r="C24" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="39" t="n">
+        <f aca="false">SUM(F14:F17)/2</f>
+        <v>79715.49647625</v>
+      </c>
+      <c r="G24" s="38"/>
+      <c r="H24" s="33"/>
+    </row>
+    <row r="25" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="29"/>
+      <c r="C25" s="35"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="33"/>
+    </row>
+    <row r="26" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="29"/>
+      <c r="C26" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37" t="n">
+        <f aca="false">SUM(G14:G17)/2</f>
+        <v>39857.748238125</v>
+      </c>
+      <c r="H26" s="33"/>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="29"/>
+      <c r="C27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="33"/>
+    </row>
+    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="40"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="43"/>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H29" s="35"/>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H30" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>